--- a/StructureDefinition-pco-patient-gas-score.xlsx
+++ b/StructureDefinition-pco-patient-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T18:33:54+00:00</t>
+    <t>2024-08-07T20:05:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-patient-gas-score.xlsx
+++ b/StructureDefinition-pco-patient-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T20:05:12+00:00</t>
+    <t>2024-08-08T15:53:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-patient-gas-score.xlsx
+++ b/StructureDefinition-pco-patient-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T15:53:25+00:00</t>
+    <t>2024-08-08T17:33:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-patient-gas-score.xlsx
+++ b/StructureDefinition-pco-patient-gas-score.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="474">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T17:33:11+00:00</t>
+    <t>2024-08-13T17:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -607,9 +607,6 @@
   </si>
   <si>
     <t>Observation.category</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -688,15 +685,10 @@
     <t>pcoCategory</t>
   </si>
   <si>
-    <t>Person-Centered Outcomes</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://mtnlotus.com/uv/pco/CodeSystem/pco"/&gt;
-    &lt;code value="person-centered"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
+    <t>Person-Centered Outcome category</t>
+  </si>
+  <si>
+    <t>http://mtnlotus.com/uv/pco/ValueSet/pco-category-valueset</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -3591,7 +3583,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>190</v>
+        <v>92</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>81</v>
@@ -3606,19 +3598,19 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>82</v>
@@ -3646,23 +3638,23 @@
         <v>116</v>
       </c>
       <c r="Y15" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="Z15" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB15" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>189</v>
@@ -3689,10 +3681,10 @@
         <v>82</v>
       </c>
       <c r="AN15" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AO15" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3700,13 +3692,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>189</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -3728,19 +3720,19 @@
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="N16" t="s" s="2">
-        <v>194</v>
-      </c>
       <c r="O16" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -3750,7 +3742,7 @@
         <v>82</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>82</v>
@@ -3768,10 +3760,10 @@
         <v>116</v>
       </c>
       <c r="Y16" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="Z16" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
@@ -3813,10 +3805,10 @@
         <v>82</v>
       </c>
       <c r="AN16" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -3824,13 +3816,13 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>189</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>82</v>
@@ -3852,19 +3844,19 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="M17" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>82</v>
@@ -3892,10 +3884,10 @@
         <v>181</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="Z17" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -3937,10 +3929,10 @@
         <v>82</v>
       </c>
       <c r="AN17" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>82</v>
@@ -3948,23 +3940,23 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>189</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>93</v>
@@ -3976,19 +3968,19 @@
         <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -3998,7 +3990,7 @@
         <v>82</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>82</v>
@@ -4015,11 +4007,9 @@
       <c r="X18" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="Y18" t="s" s="2">
-        <v>196</v>
-      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>82</v>
@@ -4061,10 +4051,10 @@
         <v>82</v>
       </c>
       <c r="AN18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AO18" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>82</v>
@@ -4072,14 +4062,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4098,19 +4088,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4120,7 +4110,7 @@
         <v>82</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>82</v>
@@ -4139,7 +4129,7 @@
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>82</v>
@@ -4157,7 +4147,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>92</v>
@@ -4172,30 +4162,30 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AO19" t="s" s="2">
+      <c r="AP19" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>229</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4218,19 +4208,19 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4279,7 +4269,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4294,19 +4284,19 @@
         <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AL20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>82</v>
@@ -4314,10 +4304,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4340,16 +4330,16 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4399,7 +4389,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4420,13 +4410,13 @@
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>82</v>
@@ -4434,14 +4424,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4460,19 +4450,19 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4521,7 +4511,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4536,19 +4526,19 @@
         <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4556,14 +4546,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4582,19 +4572,19 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -4631,17 +4621,17 @@
         <v>82</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4650,25 +4640,25 @@
         <v>92</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AJ23" t="s" s="2">
+      <c r="AK23" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AL23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -4676,16 +4666,16 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="C24" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="D24" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="D24" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4704,19 +4694,19 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M24" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -4765,7 +4755,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4774,25 +4764,25 @@
         <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AJ24" t="s" s="2">
+      <c r="AK24" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -4800,10 +4790,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4826,16 +4816,16 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4885,7 +4875,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4906,13 +4896,13 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>82</v>
@@ -4920,10 +4910,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4946,19 +4936,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5007,7 +4997,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5022,19 +5012,19 @@
         <v>104</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AL26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AN26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>82</v>
@@ -5042,10 +5032,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5068,19 +5058,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5109,7 +5099,7 @@
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5127,7 +5117,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5136,7 +5126,7 @@
         <v>92</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>104</v>
@@ -5145,27 +5135,27 @@
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP27" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>302</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5188,19 +5178,19 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5225,14 +5215,14 @@
         <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="Y28" t="s" s="2">
+      <c r="Z28" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>310</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>82</v>
       </c>
@@ -5249,7 +5239,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5258,7 +5248,7 @@
         <v>92</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>104</v>
@@ -5273,7 +5263,7 @@
         <v>135</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5284,14 +5274,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5310,19 +5300,19 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5347,14 +5337,14 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
       </c>
@@ -5371,7 +5361,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5389,27 +5379,27 @@
         <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP29" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>324</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5432,19 +5422,19 @@
         <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5493,7 +5483,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5514,10 +5504,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5528,10 +5518,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5554,16 +5544,16 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5589,14 +5579,14 @@
         <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="Z31" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>339</v>
-      </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
       </c>
@@ -5613,7 +5603,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5631,27 +5621,27 @@
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP31" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>343</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5674,19 +5664,19 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -5711,14 +5701,14 @@
         <v>82</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="Z32" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="AA32" t="s" s="2">
         <v>82</v>
       </c>
@@ -5735,7 +5725,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5756,10 +5746,10 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -5770,10 +5760,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5796,16 +5786,16 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5855,7 +5845,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5873,27 +5863,27 @@
         <v>82</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP33" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>361</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5916,16 +5906,16 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5975,7 +5965,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5993,27 +5983,27 @@
         <v>82</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP34" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>370</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6036,19 +6026,19 @@
         <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6097,7 +6087,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6109,19 +6099,19 @@
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6132,10 +6122,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6158,13 +6148,13 @@
         <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6215,7 +6205,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6239,7 +6229,7 @@
         <v>82</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6250,10 +6240,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6282,7 +6272,7 @@
         <v>139</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>141</v>
@@ -6335,7 +6325,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6359,7 +6349,7 @@
         <v>82</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6370,14 +6360,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6399,10 +6389,10 @@
         <v>138</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>141</v>
@@ -6457,7 +6447,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6492,10 +6482,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6518,13 +6508,13 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6575,7 +6565,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6584,7 +6574,7 @@
         <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>104</v>
@@ -6596,10 +6586,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6610,10 +6600,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6636,13 +6626,13 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6693,7 +6683,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6702,7 +6692,7 @@
         <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>104</v>
@@ -6714,10 +6704,10 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6728,10 +6718,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6754,19 +6744,19 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6794,11 +6784,11 @@
         <v>116</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="Z41" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>411</v>
-      </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
       </c>
@@ -6815,7 +6805,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6833,13 +6823,13 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AM41" t="s" s="2">
-        <v>413</v>
-      </c>
       <c r="AN41" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6850,10 +6840,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6876,19 +6866,19 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -6913,14 +6903,14 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>420</v>
-      </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
       </c>
@@ -6937,7 +6927,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6955,13 +6945,13 @@
         <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AM42" t="s" s="2">
-        <v>413</v>
-      </c>
       <c r="AN42" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -6972,10 +6962,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6998,17 +6988,17 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7057,7 +7047,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7081,7 +7071,7 @@
         <v>82</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7092,10 +7082,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7118,13 +7108,13 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7175,7 +7165,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7196,10 +7186,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7210,10 +7200,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7236,16 +7226,16 @@
         <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7295,7 +7285,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7316,10 +7306,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7330,10 +7320,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7356,16 +7346,16 @@
         <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7415,7 +7405,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7436,10 +7426,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7450,10 +7440,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7476,19 +7466,19 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7537,7 +7527,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7558,10 +7548,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7572,10 +7562,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7598,13 +7588,13 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7655,7 +7645,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7679,7 +7669,7 @@
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7690,10 +7680,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7722,7 +7712,7 @@
         <v>139</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>141</v>
@@ -7775,7 +7765,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7799,7 +7789,7 @@
         <v>82</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -7810,14 +7800,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7839,10 +7829,10 @@
         <v>138</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>141</v>
@@ -7897,7 +7887,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7932,10 +7922,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7958,19 +7948,19 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="N51" t="s" s="2">
-        <v>457</v>
-      </c>
       <c r="O51" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -7995,14 +7985,14 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>459</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
       </c>
@@ -8019,7 +8009,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>92</v>
@@ -8037,16 +8027,16 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AN51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>82</v>
@@ -8054,10 +8044,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8080,19 +8070,19 @@
         <v>93</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>464</v>
-      </c>
       <c r="O52" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8141,7 +8131,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8159,27 +8149,27 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AN52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP52" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>302</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8202,19 +8192,19 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="N53" t="s" s="2">
-        <v>469</v>
-      </c>
       <c r="O53" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8239,14 +8229,14 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="Y53" t="s" s="2">
+      <c r="Z53" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="Z53" t="s" s="2">
-        <v>310</v>
-      </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
       </c>
@@ -8263,7 +8253,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8272,7 +8262,7 @@
         <v>92</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>104</v>
@@ -8287,7 +8277,7 @@
         <v>135</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8298,14 +8288,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8324,19 +8314,19 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8361,14 +8351,14 @@
         <v>82</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="Z54" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="Z54" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="AA54" t="s" s="2">
         <v>82</v>
       </c>
@@ -8385,7 +8375,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8403,27 +8393,27 @@
         <v>82</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP54" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>324</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8449,16 +8439,16 @@
         <v>83</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>474</v>
-      </c>
       <c r="N55" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="O55" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8507,7 +8497,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8528,10 +8518,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>

--- a/StructureDefinition-pco-patient-gas-score.xlsx
+++ b/StructureDefinition-pco-patient-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T17:00:10+00:00</t>
+    <t>2024-08-13T17:11:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-patient-gas-score.xlsx
+++ b/StructureDefinition-pco-patient-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T17:11:01+00:00</t>
+    <t>2024-08-13T22:41:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -712,7 +712,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
+    &lt;system value="http://mtnlotus.com/uv/pco/CodeSystem/pco-gas-codes-temporary"/&gt;
     &lt;code value="goal-attainment-scaling"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>

--- a/StructureDefinition-pco-patient-gas-score.xlsx
+++ b/StructureDefinition-pco-patient-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T22:41:25+00:00</t>
+    <t>2024-08-15T16:20:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-patient-gas-score.xlsx
+++ b/StructureDefinition-pco-patient-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-15T16:20:36+00:00</t>
+    <t>2024-08-17T01:13:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-patient-gas-score.xlsx
+++ b/StructureDefinition-pco-patient-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-17T01:13:31+00:00</t>
+    <t>2024-08-17T01:14:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-patient-gas-score.xlsx
+++ b/StructureDefinition-pco-patient-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-17T01:14:43+00:00</t>
+    <t>2024-08-17T01:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-patient-gas-score.xlsx
+++ b/StructureDefinition-pco-patient-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-17T01:18:03+00:00</t>
+    <t>2024-08-19T20:32:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-patient-gas-score.xlsx
+++ b/StructureDefinition-pco-patient-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-19T20:32:01+00:00</t>
+    <t>2024-08-20T21:03:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-patient-gas-score.xlsx
+++ b/StructureDefinition-pco-patient-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T21:03:59+00:00</t>
+    <t>2024-08-21T16:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-patient-gas-score.xlsx
+++ b/StructureDefinition-pco-patient-gas-score.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$54</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="470">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-21T16:21:33+00:00</t>
+    <t>2024-08-27T18:37:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-screening-assessment</t>
+    <t>http://mtnlotus.com/uv/pco/StructureDefinition/pco-progress-score-observation</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -679,18 +679,6 @@
     <t>http://hl7.org/fhir/us/core/ValueSet/us-core-screening-assessment-observation-category</t>
   </si>
   <si>
-    <t>Observation.category:pcoCategory</t>
-  </si>
-  <si>
-    <t>pcoCategory</t>
-  </si>
-  <si>
-    <t>Person-Centered Outcome category</t>
-  </si>
-  <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/pco-category-valueset</t>
-  </si>
-  <si>
     <t>Observation.code</t>
   </si>
   <si>
@@ -773,11 +761,11 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://mtnlotus.com/uv/pco/StructureDefinition/pco-goal)
+    <t xml:space="preserve">Reference(http://mtnlotus.com/uv/pco/StructureDefinition/pco-gas-goal-profile)
 </t>
   </si>
   <si>
-    <t>What the observation is about, when it is not about the subject of record</t>
+    <t>The goal whose progress was scored</t>
   </si>
   <si>
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
@@ -880,7 +868,7 @@
     <t>effectiveDateTime</t>
   </si>
   <si>
-    <t>Time the score was assessed</t>
+    <t>When the score was assessed</t>
   </si>
   <si>
     <t>Observation.issued</t>
@@ -950,7 +938,7 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/patient-gas-followup-vs</t>
+    <t>http://mtnlotus.com/uv/pco/ValueSet/patient-gas-followup</t>
   </si>
   <si>
     <t>obs-7
@@ -1828,7 +1816,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP55"/>
+  <dimension ref="A1:AP54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3943,20 +3931,18 @@
         <v>211</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="C18" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>93</v>
@@ -3965,7 +3951,7 @@
         <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>190</v>
@@ -3974,13 +3960,13 @@
         <v>213</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -3990,7 +3976,7 @@
         <v>82</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>82</v>
@@ -4009,7 +3995,7 @@
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>82</v>
@@ -4027,13 +4013,13 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>82</v>
@@ -4042,34 +4028,34 @@
         <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>82</v>
+        <v>220</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>82</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>216</v>
+        <v>82</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4088,19 +4074,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4110,7 +4096,7 @@
         <v>82</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>82</v>
@@ -4125,11 +4111,13 @@
         <v>82</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y19" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z19" t="s" s="2">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>82</v>
@@ -4147,10 +4135,10 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>92</v>
@@ -4162,30 +4150,30 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>224</v>
+        <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>228</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4208,20 +4196,18 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>82</v>
       </c>
@@ -4269,13 +4255,13 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>82</v>
@@ -4284,19 +4270,19 @@
         <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>82</v>
@@ -4304,24 +4290,24 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>82</v>
+        <v>242</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>82</v>
@@ -4330,18 +4316,20 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>82</v>
       </c>
@@ -4389,13 +4377,13 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>82</v>
@@ -4404,19 +4392,19 @@
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>82</v>
+        <v>248</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>82</v>
@@ -4424,24 +4412,24 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -4450,19 +4438,19 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4499,19 +4487,17 @@
         <v>82</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>82</v>
+        <v>260</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4520,25 +4506,25 @@
         <v>92</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>104</v>
+        <v>262</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4546,14 +4532,16 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="D23" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4572,19 +4560,19 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O23" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -4621,17 +4609,19 @@
         <v>82</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AC23" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>264</v>
+        <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4640,25 +4630,25 @@
         <v>92</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AJ23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -4666,26 +4656,24 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>257</v>
+        <v>82</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -4694,20 +4682,18 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="N24" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
@@ -4755,7 +4741,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4764,25 +4750,25 @@
         <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>265</v>
+        <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>266</v>
+        <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>267</v>
+        <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -4790,10 +4776,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4804,10 +4790,10 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>82</v>
@@ -4816,18 +4802,20 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>275</v>
+        <v>226</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
       </c>
@@ -4875,13 +4863,13 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>82</v>
@@ -4890,19 +4878,19 @@
         <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>82</v>
+        <v>283</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>82</v>
@@ -4910,10 +4898,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4921,10 +4909,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>93</v>
@@ -4936,19 +4924,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -4973,13 +4961,11 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>82</v>
+        <v>292</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -4997,45 +4983,45 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>82</v>
+        <v>293</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>287</v>
+        <v>82</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>82</v>
+        <v>294</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>290</v>
+        <v>82</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>82</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5043,7 +5029,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>92</v>
@@ -5055,22 +5041,22 @@
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>190</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5095,11 +5081,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y27" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="Z27" t="s" s="2">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5117,7 +5105,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5126,7 +5114,7 @@
         <v>92</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>104</v>
@@ -5135,41 +5123,41 @@
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>298</v>
+        <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>299</v>
+        <v>135</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>301</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>82</v>
+        <v>309</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>82</v>
@@ -5181,16 +5169,16 @@
         <v>190</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5215,40 +5203,40 @@
         <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>302</v>
-      </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>310</v>
+        <v>82</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>104</v>
@@ -5257,31 +5245,31 @@
         <v>82</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>82</v>
+        <v>316</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>135</v>
+        <v>317</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>82</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>313</v>
+        <v>82</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5300,19 +5288,19 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>190</v>
+        <v>321</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5337,13 +5325,13 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>307</v>
+        <v>82</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>318</v>
+        <v>82</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
@@ -5361,7 +5349,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5379,27 +5367,27 @@
         <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>320</v>
+        <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>323</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5410,7 +5398,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>82</v>
@@ -5422,20 +5410,18 @@
         <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>325</v>
+        <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>82</v>
       </c>
@@ -5459,13 +5445,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>82</v>
+        <v>332</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>82</v>
+        <v>333</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>82</v>
+        <v>334</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5483,13 +5469,13 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
@@ -5501,27 +5487,27 @@
         <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>82</v>
+        <v>335</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>82</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5547,15 +5533,17 @@
         <v>190</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
       </c>
@@ -5579,13 +5567,13 @@
         <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
@@ -5603,7 +5591,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5621,27 +5609,27 @@
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>339</v>
+        <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>342</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5664,20 +5652,18 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>190</v>
+        <v>349</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>82</v>
       </c>
@@ -5701,31 +5687,31 @@
         <v>82</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>336</v>
+        <v>82</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5743,27 +5729,27 @@
         <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>82</v>
+        <v>353</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5786,16 +5772,16 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5845,7 +5831,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5863,27 +5849,27 @@
         <v>82</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5894,7 +5880,7 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -5906,18 +5892,20 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
@@ -5965,45 +5953,45 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>104</v>
+        <v>372</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>366</v>
+        <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6014,7 +6002,7 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -6026,20 +6014,16 @@
         <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>82</v>
       </c>
@@ -6087,19 +6071,19 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>82</v>
@@ -6108,10 +6092,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>377</v>
+        <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6122,21 +6106,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>82</v>
@@ -6148,15 +6132,17 @@
         <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>380</v>
+        <v>138</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>381</v>
+        <v>139</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="N36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6211,13 +6197,13 @@
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>82</v>
@@ -6229,7 +6215,7 @@
         <v>82</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6240,14 +6226,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>137</v>
+        <v>385</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6260,24 +6246,26 @@
         <v>82</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>139</v>
+        <v>386</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="O37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
       </c>
@@ -6325,7 +6313,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6349,7 +6337,7 @@
         <v>82</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>384</v>
+        <v>135</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6360,46 +6348,42 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>389</v>
+        <v>82</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>138</v>
+        <v>390</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>82</v>
       </c>
@@ -6447,19 +6431,19 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>82</v>
@@ -6468,10 +6452,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>82</v>
+        <v>394</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>135</v>
+        <v>395</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6482,10 +6466,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6508,13 +6492,13 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6565,7 +6549,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6574,7 +6558,7 @@
         <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>104</v>
@@ -6586,7 +6570,7 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>399</v>
@@ -6626,7 +6610,7 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>394</v>
+        <v>190</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>401</v>
@@ -6634,8 +6618,12 @@
       <c r="M40" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
       </c>
@@ -6659,13 +6647,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>82</v>
+        <v>405</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>82</v>
+        <v>406</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6692,7 +6680,7 @@
         <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>397</v>
+        <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>104</v>
@@ -6701,13 +6689,13 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>82</v>
+        <v>407</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>403</v>
+        <v>318</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6718,10 +6706,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6732,7 +6720,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
@@ -6747,16 +6735,16 @@
         <v>190</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6781,37 +6769,37 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>116</v>
+        <v>332</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>404</v>
-      </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>82</v>
@@ -6823,13 +6811,13 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6840,10 +6828,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6854,7 +6842,7 @@
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>
@@ -6866,19 +6854,17 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>190</v>
+        <v>417</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -6903,13 +6889,13 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>336</v>
+        <v>82</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>418</v>
+        <v>82</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>419</v>
+        <v>82</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
@@ -6927,13 +6913,13 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
@@ -6945,13 +6931,13 @@
         <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>411</v>
+        <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>412</v>
+        <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>322</v>
+        <v>421</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -6962,10 +6948,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6988,18 +6974,16 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>421</v>
+        <v>376</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>424</v>
-      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>82</v>
       </c>
@@ -7047,7 +7031,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7068,7 +7052,7 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>82</v>
+        <v>394</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>425</v>
@@ -7096,27 +7080,29 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7171,7 +7157,7 @@
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>82</v>
@@ -7186,10 +7172,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>398</v>
+        <v>431</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7200,10 +7186,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7226,16 +7212,16 @@
         <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7285,7 +7271,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7306,10 +7292,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7320,10 +7306,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7337,7 +7323,7 @@
         <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
@@ -7346,18 +7332,20 @@
         <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>438</v>
+        <v>367</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
@@ -7405,7 +7393,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7426,10 +7414,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7440,10 +7428,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7454,7 +7442,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
@@ -7463,23 +7451,19 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>444</v>
+        <v>377</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>82</v>
       </c>
@@ -7527,19 +7511,19 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>443</v>
+        <v>379</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
@@ -7548,10 +7532,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>448</v>
+        <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>449</v>
+        <v>380</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7562,21 +7546,21 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
@@ -7588,15 +7572,17 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>380</v>
+        <v>138</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>381</v>
+        <v>139</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="N48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -7651,13 +7637,13 @@
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
@@ -7669,7 +7655,7 @@
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7680,14 +7666,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>137</v>
+        <v>385</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7700,24 +7686,26 @@
         <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>139</v>
+        <v>386</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="O49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
       </c>
@@ -7765,7 +7753,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7789,7 +7777,7 @@
         <v>82</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>384</v>
+        <v>135</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -7800,45 +7788,45 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>389</v>
+        <v>82</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>390</v>
+        <v>450</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>391</v>
+        <v>451</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>141</v>
+        <v>452</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>147</v>
+        <v>216</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7863,13 +7851,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>82</v>
+        <v>332</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>82</v>
+        <v>453</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>82</v>
+        <v>454</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -7887,34 +7875,34 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>82</v>
+        <v>455</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>135</v>
+        <v>222</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>82</v>
@@ -7922,10 +7910,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7933,7 +7921,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>92</v>
@@ -7948,19 +7936,19 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>190</v>
+        <v>457</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>455</v>
+        <v>289</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>220</v>
+        <v>291</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -7985,13 +7973,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>336</v>
+        <v>82</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>457</v>
+        <v>82</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>458</v>
+        <v>82</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8009,10 +7997,10 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>92</v>
@@ -8027,27 +8015,27 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>225</v>
+        <v>295</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>227</v>
+        <v>82</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>82</v>
+        <v>297</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8067,22 +8055,22 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>461</v>
+        <v>190</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>462</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>293</v>
+        <v>463</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8107,13 +8095,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>82</v>
+        <v>303</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>82</v>
+        <v>304</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>82</v>
+        <v>305</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8131,7 +8119,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8140,7 +8128,7 @@
         <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>104</v>
@@ -8149,38 +8137,38 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>464</v>
+        <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>299</v>
+        <v>135</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>301</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>82</v>
+        <v>309</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>82</v>
@@ -8195,16 +8183,16 @@
         <v>190</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>466</v>
+        <v>310</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>467</v>
+        <v>311</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>468</v>
+        <v>312</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8229,13 +8217,13 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8253,16 +8241,16 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>469</v>
+        <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>104</v>
@@ -8271,31 +8259,31 @@
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>82</v>
+        <v>316</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>135</v>
+        <v>317</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>82</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>313</v>
+        <v>82</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8314,19 +8302,19 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>314</v>
+        <v>468</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>315</v>
+        <v>469</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>316</v>
+        <v>370</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>317</v>
+        <v>371</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8351,13 +8339,13 @@
         <v>82</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>307</v>
+        <v>82</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>318</v>
+        <v>82</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>82</v>
@@ -8375,7 +8363,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8393,145 +8381,23 @@
         <v>82</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>320</v>
+        <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>321</v>
+        <v>373</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>322</v>
+        <v>374</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="P55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP55" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP55">
+  <autoFilter ref="A1:AP54">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8541,7 +8407,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI54">
+  <conditionalFormatting sqref="A2:AI53">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pco-patient-gas-score.xlsx
+++ b/StructureDefinition-pco-patient-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-27T18:37:51+00:00</t>
+    <t>2024-08-28T01:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-patient-gas-score.xlsx
+++ b/StructureDefinition-pco-patient-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T01:59:14+00:00</t>
+    <t>2024-08-28T17:18:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-patient-gas-score.xlsx
+++ b/StructureDefinition-pco-patient-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T17:18:00+00:00</t>
+    <t>2024-08-28T19:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-patient-gas-score.xlsx
+++ b/StructureDefinition-pco-patient-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T19:37:38+00:00</t>
+    <t>2024-08-28T21:15:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-patient-gas-score.xlsx
+++ b/StructureDefinition-pco-patient-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T21:15:57+00:00</t>
+    <t>2024-08-28T22:24:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-patient-gas-score.xlsx
+++ b/StructureDefinition-pco-patient-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T22:24:15+00:00</t>
+    <t>2024-09-06T15:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
